--- a/AD_Library/Excel/05_Digital.xlsx
+++ b/AD_Library/Excel/05_Digital.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Library\AD_Library\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB559C83-E108-4975-8DF5-D113D6673C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32AC6DA-F0D7-4F70-B996-A248FCD3E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,8 +478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/AD_Library/Excel/05_Digital.xlsx
+++ b/AD_Library/Excel/05_Digital.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32AC6DA-F0D7-4F70-B996-A248FCD3E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11ECF4E-6394-4AA3-A853-28F57A91D549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -480,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -566,6 +569,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{29F63EBA-2693-4AF8-B638-52FF69AAD01C}">

--- a/AD_Library/Excel/05_Digital.xlsx
+++ b/AD_Library/Excel/05_Digital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11ECF4E-6394-4AA3-A853-28F57A91D549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC5F1A-4774-4A9D-89FA-A85F3E447022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -497,8 +497,7 @@
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
     <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
     <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="30.58203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="20.58203125" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
     <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>

--- a/AD_Library/Excel/05_Digital.xlsx
+++ b/AD_Library/Excel/05_Digital.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FC5F1A-4774-4A9D-89FA-A85F3E447022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A10181-942A-4415-811D-9ACB22755678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +198,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,9 +487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -491,7 +497,7 @@
     <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.58203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
     <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
@@ -518,7 +524,7 @@
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">

--- a/AD_Library/Excel/05_Digital.xlsx
+++ b/AD_Library/Excel/05_Digital.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Library\AD_Library\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A10181-942A-4415-811D-9ACB22755678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43834795-36A6-4DB2-A986-A769FEC5F945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Device Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,68 @@
   </si>
   <si>
     <t>Device size(LxWxH/mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21379</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4051BM96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD4051B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOIC-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\PCB\104-SOIC.PcbLib</t>
+  </si>
+  <si>
+    <t>20V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-55℃~+125℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.25mm*10.2mm*1.75mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TI(德州仪器)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路复用器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SF05010001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟开关-8选1-CD4051BM96-Vin=3V~20V/f=20MHz/THD=0.3%-TI(德州仪器)-SOIC-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\Library\Datasheet\05_Digital\CD4051B_TI_DS_20250513.pdf</t>
+  </si>
+  <si>
+    <t>G:\Library\AD_Library\SCH\05_Digital.SchLib</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +266,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,30 +556,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="25.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="50.58203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="150.58203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="30.58203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="100.58203125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.58203125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="100.58203125" style="4" customWidth="1"/>
-    <col min="12" max="18" width="20.58203125" style="4" customWidth="1"/>
-    <col min="19" max="20" width="30.58203125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="100.58203125" style="4" customWidth="1"/>
+    <col min="1" max="3" width="25.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="150.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="100.5546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="4" customWidth="1"/>
+    <col min="10" max="11" width="100.5546875" style="4" customWidth="1"/>
+    <col min="12" max="18" width="20.5546875" style="4" customWidth="1"/>
+    <col min="19" max="20" width="30.5546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="100.5546875" style="4" customWidth="1"/>
     <col min="22" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -571,6 +642,59 @@
       </c>
       <c r="U1" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
